--- a/biology/Histoire de la zoologie et de la botanique/John_Bachman/John_Bachman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Bachman/John_Bachman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Bachman est un pasteur luthérien connu pour ses positions anti-esclavagistes et un naturaliste américain, né le 4 février 1790 à Rhinebeck dans l'État de New York et mort le 24 février 1874 à Columbia.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Bachman[1],[2] fait ses études au Williams College. Il se marie à Harriet Martin en 1816. Il seconde Johannes Knickerbocker (1749-1827) dans une mission d’exploration et d’ambassade auprès des amérindiens Oneidas.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Bachman, fait ses études au Williams College. Il se marie à Harriet Martin en 1816. Il seconde Johannes Knickerbocker (1749-1827) dans une mission d’exploration et d’ambassade auprès des amérindiens Oneidas.
 Il enseigne dans des écoles d’Ellwood (Pennsylvanie) puis à Philadelphie. Il est ordonné pasteur en 1814 à l’église luthérienne. Il sert au temple Saint John de Charleston. Il fonde une école de théologie.
-Il étudie les animaux du sud des États-Unis d'Amérique. Il assiste plus tard John James Audubon (1785-1851)[3], celui-ci utilisera d’ailleurs les observations de Bachman dans son livre sur les oiseaux (1833-1835). Il participe à la fondation de la Société d’horticulture en 1833.
+Il étudie les animaux du sud des États-Unis d'Amérique. Il assiste plus tard John James Audubon (1785-1851), celui-ci utilisera d’ailleurs les observations de Bachman dans son livre sur les oiseaux (1833-1835). Il participe à la fondation de la Société d’horticulture en 1833.
 Il voyage en Europe avec Audubon en 1838 et obtient un Ph. D. honorifique à l’université de Berlin en 1838. Il participe à l’élaboration du livre d’Audubon intitulé The Viviparous Quadrupeds of North America (trois volumes, 1845-1859). Il publie également The Unity of the Human Race (1850).
 John James Audubon (1785-1851) lui dédie l'huîtrier de Bachman (Haematopus bachmani) en 1838.
-C'est sur ses conseils que l'Afro-Américain Daniel Payne entrera en 1835 au Lutheran Theological Seminary at Gettysburg (en) de Pennsylvanie qui lui ouvrira sa carrière d'évêque puis de président d'université[4].
+C'est sur ses conseils que l'Afro-Américain Daniel Payne entrera en 1835 au Lutheran Theological Seminary at Gettysburg (en) de Pennsylvanie qui lui ouvrira sa carrière d'évêque puis de président d'université.
 </t>
         </is>
       </c>
